--- a/App Store Ratings analysis.xlsx
+++ b/App Store Ratings analysis.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,14 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ferralme\nss-data-analytics\projects\app-trader-thesaurus-rex\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{E02BE654-FF1A-4A5F-832E-798075E9100B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE939AE1-C02D-438B-8D2F-D927276D435B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="avg_rating_count_app" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -79,7 +90,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -731,6 +742,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-1AA3-42DD-B3A2-7AD3B083B7AC}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -750,6 +766,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-1AA3-42DD-B3A2-7AD3B083B7AC}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -769,6 +790,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-1AA3-42DD-B3A2-7AD3B083B7AC}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -788,6 +814,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-1AA3-42DD-B3A2-7AD3B083B7AC}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -1128,6 +1159,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-91D8-43FD-8A15-46E5BE0CA4EB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -1147,6 +1183,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-91D8-43FD-8A15-46E5BE0CA4EB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -1166,6 +1207,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-91D8-43FD-8A15-46E5BE0CA4EB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:dLbl>
@@ -3078,7 +3124,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/App Store Ratings analysis.xlsx
+++ b/App Store Ratings analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ferralme\nss-data-analytics\projects\app-trader-thesaurus-rex\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE939AE1-C02D-438B-8D2F-D927276D435B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAAF5959-B0A4-4856-8CA2-9A6CC5B6C10E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2794,13 +2794,13 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>320675</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>68262</xdr:rowOff>
+      <xdr:rowOff>55562</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>92075</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>103187</xdr:rowOff>
+      <xdr:rowOff>96837</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2823,6 +2823,107 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>149225</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>3173</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DEAC27D1-3FB0-409F-984F-68082FB33EBB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6026150" y="184148"/>
+          <a:ext cx="3784600" cy="2425701"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>General</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> Assumtions to Narrow our search where the two app stores matched</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>- Look at "Content Ratings" for "Everyone" and "4+" respectivley as they held the largest share of both stores</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>- Logically, do not venture into apps that are more than $1 in price, per AppTraders policy on buying apps</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>- We only looked at apps that existed in both the Apple Store and the Google Play Store</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>- We looked at the viability of the app over the course of time, perhaps not choosing the apps wiht the most downloads or percived earning ceiling</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -3128,7 +3229,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L37" sqref="L37"/>
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
